--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999744407980433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989999998295714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999665576060562</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999060875087641</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999167700033894</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.385839310721291e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009334562641606883</v>
       </c>
       <c r="I2" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>7.304694876598048e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001039871051756206</v>
       </c>
       <c r="K2" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.564590002610934e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003115237284558018</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004884505410705664</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036083579233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005092448918359515</v>
       </c>
       <c r="P2" t="n">
-        <v>100.40878827957</v>
+        <v>103.2867489805688</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3826970991662</v>
+        <v>153.260657800165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_22</t>
+          <t>model_22_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999754855239916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.99898863255135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.999958631724752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999064840236335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999158036502862</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.288318729273287e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009440671194146356</v>
       </c>
       <c r="I3" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>9.035914975628267e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001035480535341936</v>
       </c>
       <c r="K3" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.629198425491093e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003090622463748631</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004783637454148555</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034608672012</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004987286804066315</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>103.3702161928047</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>153.344125012401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_21</t>
+          <t>model_22_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999763154262246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989784685500814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999507065087487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999070687623374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999149932704476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.210850998678203e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000953554768450706</v>
       </c>
       <c r="I4" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.076698975551397e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001029005860429161</v>
       </c>
       <c r="K4" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.683378789921504e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003066360309076344</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004701968735198271</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00003343704533</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004902141278672762</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>103.4390959125695</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4130047321657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_20</t>
+          <t>model_22_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999769774558481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989693864817164</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999428972869397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999078009207599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999143239138336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.149053439292852e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009620324806126783</v>
       </c>
       <c r="I5" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.247272836483831e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001020898841449994</v>
       </c>
       <c r="K5" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.728130625491885e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003042206804618126</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004635788432718702</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000032502415273</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004833143543704526</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>103.4957959611358</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4697047807321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_19</t>
+          <t>model_22_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999774871658254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989611744850146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.999935350430853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999085134938641</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.999913681196656</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.101474250278642e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009696980190688474</v>
       </c>
       <c r="I6" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.412115942764236e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001013008686118538</v>
       </c>
       <c r="K6" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.77110140197481e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003019370005102602</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004584183951674106</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031782824717</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004779342153065858</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>103.5405726852044</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5144815048006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_18</t>
+          <t>model_22_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999779064180577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989538838991375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999282928533841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999093361798873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999132095859821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.062338894699624e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009765034609654044</v>
       </c>
       <c r="I7" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.566271922340673e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001847549633479395</v>
+        <v>0.0001003899276189592</v>
       </c>
       <c r="K7" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.802632342118297e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002996962062813186</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004541298156584331</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031190939213</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004734630620893278</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>103.5781694809104</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5520783005066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_17</t>
+          <t>model_22_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999782490886244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989473613425037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999216980199346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999102026708675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999128498389969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.030352101444628e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009825919812759209</v>
       </c>
       <c r="I8" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.710320360355516e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.94304824214783e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.826684301251673e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002974806551904431</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004505942855213133</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030707169001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004697770171147145</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>103.6094324759391</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5833412955354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_16</t>
+          <t>model_22_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999785398314421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989415856270442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999156561124528</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999111202064461</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.999912622682009</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.003212535628728e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.00098798335813275</v>
       </c>
       <c r="I9" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.842291446819412e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.841451673415802e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.841871560117606e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002952931907040374</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004475726237862106</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030296708552</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004666267169838464</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>103.6363466105286</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6102554301248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_15</t>
+          <t>model_22_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999787747927147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989364037185421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999101339229216</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999119947705261</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999124448375136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.98127993219684e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009928204422599307</v>
       </c>
       <c r="I10" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>1.962910531817338e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.744613238213676e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.853761885015507e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002932079749720451</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004451157076757503</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00002996499852</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004640652048680463</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>103.6583647974149</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6322736170112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_14</t>
+          <t>model_22_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999789599522526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989317200314078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999050294037454</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.999912807186761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999122822573069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.963996102078125e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009971924586096434</v>
       </c>
       <c r="I11" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.074406602152794e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.654656288547818e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.864631670305142e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002912446075007841</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004431699563461094</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00002970359682</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00462036618876042</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>103.6758884794504</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6497972990466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_13</t>
+          <t>model_22_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999791205848192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989275755373556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9999003829557722</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999136213864377</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.999912198978405</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.949001757083777e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.00100106116188522</v>
       </c>
       <c r="I12" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.175897197476483e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.564501862561503e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.870199530018993e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002893784355137532</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004414750000944308</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029476821432</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004602695048276863</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>103.6912162858286</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6651251054248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_23</t>
+          <t>model_22_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999792483474521</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989238299690146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998962180828658</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999143524521004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999121240244332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.937075676118419e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001004557485520004</v>
       </c>
       <c r="I13" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.266868931834126e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.483552671496679e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.875210801665403e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000287660629283649</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004401222189481485</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029296450656</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004588591329873637</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>103.703492025169</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6774008447653</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999793576213915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989204694619164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.999892486961398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999150490637803</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999120913934432</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.926875433542922e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001007694371387035</v>
       </c>
       <c r="I14" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.348366398539191e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.406418489379121e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.877392443959156e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002860166544863908</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004389618928270337</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029142181565</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004576494093810669</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>103.7140514406281</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6879602602243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_10</t>
+          <t>model_22_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999794472624485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989174587178373</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998890524683526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.999915701217997</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999120704025798</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.91850783434378e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001010504768828462</v>
       </c>
       <c r="I15" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.42338472346687e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.334206978182106e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.878795850824487e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002845090865211868</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004380077435780993</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029015629484</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004566546400232442</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>103.722755501392</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6966643209882</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_9</t>
+          <t>model_22_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999795257005721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989147659389138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998859861160799</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999163149722948</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999120777495846</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.911185979804608e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001013018359754221</v>
       </c>
       <c r="I16" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.490361889555507e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.266247400194952e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.878304644875229e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002831011100645153</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004371711312294772</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00002890489331</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00455782411354915</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>103.7304029675504</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7043117871467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_8</t>
+          <t>model_22_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999795955492555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989123675087431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998832536891853</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.999916895706362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999121123001611</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.90466591180397e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001015257189039637</v>
       </c>
       <c r="I17" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.550045250655194e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.201944075124838e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.875994662890016e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002817710675221481</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004364247829585265</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028806283404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004550042894929159</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>103.7372376923051</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7111465119014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_7</t>
+          <t>model_22_7_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999796504353152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989101889870367</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998807903395425</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999174089769887</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999121349395432</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.89954253905454e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.00101729074342658</v>
       </c>
       <c r="I18" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.603851259717072e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.14511081904178e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.874481039379425e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002805805291272791</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004358374168258778</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028728797202</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00454391917967985</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>103.742624753412</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7165335730082</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_6</t>
+          <t>model_22_7_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999797016866541</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989082624458577</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998785668936714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999179064299022</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999121836690652</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.894758451540015e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001019089085051765</v>
       </c>
       <c r="I19" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.65241714196195e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.090029021338936e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.871223081650442e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002794601465308484</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004352882322714473</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028656442371</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004538193534901035</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>103.7476682015323</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7215770211285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_5</t>
+          <t>model_22_7_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999797452011063</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989065260641838</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998765830230005</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999183541712654</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.999912232027803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.89069656843049e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001020709921125948</v>
       </c>
       <c r="I20" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.695750074254864e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001847549633479395</v>
+        <v>9.040451667339841e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.867989913805036e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002784154047028888</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004348214079861397</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028595010203</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004533326555285109</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>103.7519602981463</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7258691177425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_4</t>
+          <t>model_22_7_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999797826199921</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989049556712124</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998748127872735</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999187620365346</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999122789441717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.887203679698999e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001022175814032486</v>
       </c>
       <c r="I21" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.734416659749962e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.995289699968182e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.864853179859072e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002774609550347173</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004344195759515217</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028542183541</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004529137166722721</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>103.755658532083</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7295673516792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_3</t>
+          <t>model_22_7_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999979817283265</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989035618906809</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998732208554951</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999191502611207</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999123403821589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.883968015324385e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001023476846978844</v>
       </c>
       <c r="I22" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.769188619930271e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.952302499512689e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.86074555972148e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002765871321351791</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004340470038284316</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028493247155</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004525252833825716</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>103.7590905319284</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7329993515247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_2</t>
+          <t>model_22_7_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999798449775144</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989022962678553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998717708820476</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999194864885548</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999123819513068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.881382878712982e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001024658250332002</v>
       </c>
       <c r="I23" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.800859838297691e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.915072822079679e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.857966330188685e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002757819270147186</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004337491070553324</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028454149392</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004522147045271102</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>103.7618367694933</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7357455890896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_1</t>
+          <t>model_22_7_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999798702389704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989011705857053</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998704860032666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999198000774067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999124317422302</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.879024832679509e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001025709025207316</v>
       </c>
       <c r="I24" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.828924956676602e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.880349861924447e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.854637409300524e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002750710706374917</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00433477200401533</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028418486159</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004519312222441342</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>103.7643450574488</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7382538770451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_11</t>
+          <t>model_22_7_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999798952693463</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989001652604684</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998693299325068</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999201003851207</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999124915761967</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.876688356960304e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001026647452187229</v>
       </c>
       <c r="I25" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.854176570452918e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.847097491086514e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.850637030769716e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002744177974019331</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00433207612693995</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028383149158</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004516501576297628</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>103.7668335073412</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7407423269374</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999799131038828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9988992511234899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999999187</v>
+        <v>0.9998682936901757</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9985417665618357</v>
+        <v>0.9999203512398991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999060465600146</v>
+        <v>0.9999125300332022</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.875023581261181e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.001027500758930744</v>
       </c>
       <c r="I26" t="n">
-        <v>2.021100090846285e-14</v>
+        <v>2.876810817448333e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001847549633479395</v>
+        <v>8.819320928154775e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>9.237748168407522e-05</v>
+        <v>5.848065872801554e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000273825932412439</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004330154248131561</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028357970989</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004514497879129528</v>
       </c>
       <c r="P26" t="n">
-        <v>100.40878827957</v>
+        <v>103.7686084579086</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7425172775048</v>
       </c>
     </row>
   </sheetData>
